--- a/Code/Results/Cases/Case_3_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.79208642657068</v>
+        <v>8.600386905322791</v>
       </c>
       <c r="C2">
-        <v>7.239365987814815</v>
+        <v>4.961210941492835</v>
       </c>
       <c r="D2">
-        <v>5.356257385507037</v>
+        <v>4.799110630911748</v>
       </c>
       <c r="F2">
-        <v>15.20273531042488</v>
+        <v>22.00976878969509</v>
       </c>
       <c r="G2">
-        <v>2.08442248802365</v>
+        <v>3.621657502333183</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.46335869595699</v>
+        <v>18.96588030718569</v>
       </c>
       <c r="K2">
-        <v>11.51961310495792</v>
+        <v>8.350989176995258</v>
       </c>
       <c r="N2">
-        <v>11.70423998308447</v>
+        <v>17.48797667798502</v>
       </c>
       <c r="O2">
-        <v>12.33242489500618</v>
+        <v>19.85960241583157</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.99562309984244</v>
+        <v>8.280044250274301</v>
       </c>
       <c r="C3">
-        <v>6.857012022814437</v>
+        <v>4.77783824328683</v>
       </c>
       <c r="D3">
-        <v>5.121054805796038</v>
+        <v>4.706033055650416</v>
       </c>
       <c r="F3">
-        <v>15.04840897145422</v>
+        <v>22.06867399777129</v>
       </c>
       <c r="G3">
-        <v>2.088022361124057</v>
+        <v>3.623041583841587</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.66713728699288</v>
+        <v>19.05714943363522</v>
       </c>
       <c r="K3">
-        <v>10.88593234634703</v>
+        <v>8.133181791922043</v>
       </c>
       <c r="N3">
-        <v>11.83936477788543</v>
+        <v>17.53437867516515</v>
       </c>
       <c r="O3">
-        <v>12.43040044922246</v>
+        <v>19.94265453520549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.4782453227271</v>
+        <v>8.077764362241856</v>
       </c>
       <c r="C4">
-        <v>6.610693307831064</v>
+        <v>4.660681543077796</v>
       </c>
       <c r="D4">
-        <v>4.970351532789576</v>
+        <v>4.647210928850026</v>
       </c>
       <c r="F4">
-        <v>14.96805459720887</v>
+        <v>22.1107042421702</v>
       </c>
       <c r="G4">
-        <v>2.090305817111926</v>
+        <v>3.623936959204655</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.79995684105252</v>
+        <v>19.11664277164639</v>
       </c>
       <c r="K4">
-        <v>10.47668909421204</v>
+        <v>7.997333942715866</v>
       </c>
       <c r="N4">
-        <v>11.92528306499323</v>
+        <v>17.56445250984624</v>
       </c>
       <c r="O4">
-        <v>12.50130600369879</v>
+        <v>19.99775884847806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.26029462207512</v>
+        <v>7.994052325033453</v>
       </c>
       <c r="C5">
-        <v>6.507464269021764</v>
+        <v>4.61183598105169</v>
       </c>
       <c r="D5">
-        <v>4.907404655965316</v>
+        <v>4.622837466695643</v>
       </c>
       <c r="F5">
-        <v>14.93886554908132</v>
+        <v>22.12930233934987</v>
       </c>
       <c r="G5">
-        <v>2.091255028487015</v>
+        <v>3.624313317939431</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.85595956451309</v>
+        <v>19.14175583493242</v>
       </c>
       <c r="K5">
-        <v>10.30491891285329</v>
+        <v>7.94152298142639</v>
       </c>
       <c r="N5">
-        <v>11.96103743412241</v>
+        <v>17.57710673029645</v>
       </c>
       <c r="O5">
-        <v>12.53279080556974</v>
+        <v>20.02124665410441</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.2236749238562</v>
+        <v>7.980078490061329</v>
       </c>
       <c r="C6">
-        <v>6.490152684698314</v>
+        <v>4.603659991385159</v>
       </c>
       <c r="D6">
-        <v>4.896861247352982</v>
+        <v>4.618766462164822</v>
       </c>
       <c r="F6">
-        <v>14.93423134677624</v>
+        <v>22.13247923518634</v>
       </c>
       <c r="G6">
-        <v>2.091413781341487</v>
+        <v>3.624376506737701</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.86537058365639</v>
+        <v>19.14597834575961</v>
       </c>
       <c r="K6">
-        <v>10.27609698613742</v>
+        <v>7.932230732674742</v>
       </c>
       <c r="N6">
-        <v>11.96701923877628</v>
+        <v>17.57923207175832</v>
       </c>
       <c r="O6">
-        <v>12.53817205722699</v>
+        <v>20.02520910464161</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.47533474760548</v>
+        <v>8.076640407323001</v>
       </c>
       <c r="C7">
-        <v>6.609312594659188</v>
+        <v>4.660027198767722</v>
       </c>
       <c r="D7">
-        <v>4.969508752801022</v>
+        <v>4.646883827662274</v>
       </c>
       <c r="F7">
-        <v>14.96764664103678</v>
+        <v>22.11094911400781</v>
       </c>
       <c r="G7">
-        <v>2.090318542467968</v>
+        <v>3.623941988359157</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.80070458359883</v>
+        <v>19.11697793567485</v>
       </c>
       <c r="K7">
-        <v>10.47439268252576</v>
+        <v>7.996582977824502</v>
       </c>
       <c r="N7">
-        <v>11.92576225648401</v>
+        <v>17.56462155283401</v>
       </c>
       <c r="O7">
-        <v>12.50172027700098</v>
+        <v>19.99807143478623</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.52335362835597</v>
+        <v>8.491162910808328</v>
       </c>
       <c r="C8">
-        <v>7.109955812665842</v>
+        <v>4.898956679423945</v>
       </c>
       <c r="D8">
-        <v>5.276490539073086</v>
+        <v>4.767374752601675</v>
       </c>
       <c r="F8">
-        <v>15.14649865804465</v>
+        <v>22.02886050782544</v>
       </c>
       <c r="G8">
-        <v>2.085648731337637</v>
+        <v>3.622125301335724</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.53198692469905</v>
+        <v>18.99663342587872</v>
       </c>
       <c r="K8">
-        <v>11.30534056632521</v>
+        <v>8.276374118661009</v>
       </c>
       <c r="N8">
-        <v>11.75021830843018</v>
+        <v>17.50364809893972</v>
       </c>
       <c r="O8">
-        <v>12.36390730091548</v>
+        <v>19.88738508059517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.35353851108328</v>
+        <v>9.254904047493685</v>
       </c>
       <c r="C9">
-        <v>7.998324006024178</v>
+        <v>5.329576413488509</v>
       </c>
       <c r="D9">
-        <v>5.826887017925999</v>
+        <v>4.989667805524442</v>
       </c>
       <c r="F9">
-        <v>15.61380290680916</v>
+        <v>21.91454767120162</v>
       </c>
       <c r="G9">
-        <v>2.077057306082998</v>
+        <v>3.618922614045816</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.06903730374625</v>
+        <v>18.78801553455289</v>
       </c>
       <c r="K9">
-        <v>12.77265306510919</v>
+        <v>8.805015808206395</v>
       </c>
       <c r="N9">
-        <v>11.42941789702897</v>
+        <v>17.39659837561458</v>
       </c>
       <c r="O9">
-        <v>12.18414712450426</v>
+        <v>19.70299076357522</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.56150838339147</v>
+        <v>9.780498552812082</v>
       </c>
       <c r="C10">
-        <v>8.592437153083461</v>
+        <v>5.620899339736531</v>
       </c>
       <c r="D10">
-        <v>6.197982679078011</v>
+        <v>5.143559366420645</v>
       </c>
       <c r="F10">
-        <v>16.0304611971195</v>
+        <v>21.85918876419506</v>
       </c>
       <c r="G10">
-        <v>2.071069675126419</v>
+        <v>3.616786805216931</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.77246960710248</v>
+        <v>18.65139691374564</v>
       </c>
       <c r="K10">
-        <v>13.74983879303804</v>
+        <v>9.177179797778351</v>
       </c>
       <c r="N10">
-        <v>11.20808732635381</v>
+        <v>17.32552500310853</v>
       </c>
       <c r="O10">
-        <v>12.11460110395477</v>
+        <v>19.58749599411856</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.08159309252044</v>
+        <v>10.01093767771096</v>
       </c>
       <c r="C11">
-        <v>8.849809842372991</v>
+        <v>5.747666028751659</v>
       </c>
       <c r="D11">
-        <v>6.359300882784598</v>
+        <v>5.211350394267756</v>
       </c>
       <c r="F11">
-        <v>16.23617504884837</v>
+        <v>21.8402502235664</v>
       </c>
       <c r="G11">
-        <v>2.068411454440716</v>
+        <v>3.615861876220393</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.64817196895279</v>
+        <v>18.59285445524312</v>
       </c>
       <c r="K11">
-        <v>14.17229026669914</v>
+        <v>9.342214582240878</v>
       </c>
       <c r="N11">
-        <v>11.11054851794725</v>
+        <v>17.2948252290883</v>
       </c>
       <c r="O11">
-        <v>12.09817263655731</v>
+        <v>19.53930763828057</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.27432691767671</v>
+        <v>10.09688809519779</v>
       </c>
       <c r="C12">
-        <v>8.945408398354708</v>
+        <v>5.794819181021203</v>
       </c>
       <c r="D12">
-        <v>6.41929283671422</v>
+        <v>5.236689488174846</v>
       </c>
       <c r="F12">
-        <v>16.31640387913433</v>
+        <v>21.83397828528125</v>
       </c>
       <c r="G12">
-        <v>2.067413879889202</v>
+        <v>3.615518304959241</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.60274009482194</v>
+        <v>18.57120412341249</v>
       </c>
       <c r="K12">
-        <v>14.32908100783865</v>
+        <v>9.404040266861244</v>
       </c>
       <c r="N12">
-        <v>11.07406980389844</v>
+        <v>17.28343382943363</v>
       </c>
       <c r="O12">
-        <v>12.09427538223937</v>
+        <v>19.52168689702416</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.23300515817362</v>
+        <v>10.07843645497301</v>
       </c>
       <c r="C13">
-        <v>8.924902479606169</v>
+        <v>5.784702065736352</v>
       </c>
       <c r="D13">
-        <v>6.406421474919934</v>
+        <v>5.23124722507843</v>
       </c>
       <c r="F13">
-        <v>16.29902159310328</v>
+        <v>21.83528902394927</v>
       </c>
       <c r="G13">
-        <v>2.067628330046668</v>
+        <v>3.615592002598266</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.61244996833132</v>
+        <v>18.57584385398412</v>
       </c>
       <c r="K13">
-        <v>14.29545491209068</v>
+        <v>9.390755612774891</v>
       </c>
       <c r="N13">
-        <v>11.08190572874394</v>
+        <v>17.28587677801265</v>
       </c>
       <c r="O13">
-        <v>12.09500918332601</v>
+        <v>19.52545392267875</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09753368376578</v>
+        <v>10.01803551491646</v>
       </c>
       <c r="C14">
-        <v>8.857712161297252</v>
+        <v>5.751562513639487</v>
       </c>
       <c r="D14">
-        <v>6.364258506557741</v>
+        <v>5.213441781746237</v>
       </c>
       <c r="F14">
-        <v>16.24272884637077</v>
+        <v>21.83971618848064</v>
       </c>
       <c r="G14">
-        <v>2.068329204622353</v>
+        <v>3.615833476717414</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.64440077801818</v>
+        <v>18.59106287988583</v>
       </c>
       <c r="K14">
-        <v>14.18525333813577</v>
+        <v>9.34731473839577</v>
       </c>
       <c r="N14">
-        <v>11.10753819938328</v>
+        <v>17.29388336738341</v>
       </c>
       <c r="O14">
-        <v>12.09780464650318</v>
+        <v>19.53784539181168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.01400577401198</v>
+        <v>9.980865511250117</v>
       </c>
       <c r="C15">
-        <v>8.816313369764071</v>
+        <v>5.731152184066099</v>
       </c>
       <c r="D15">
-        <v>6.338289305206304</v>
+        <v>5.202491829918789</v>
       </c>
       <c r="F15">
-        <v>16.20855124061277</v>
+        <v>21.8425451616195</v>
       </c>
       <c r="G15">
-        <v>2.068759675220562</v>
+        <v>3.615982255524737</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.6641882387316</v>
+        <v>18.600452484416</v>
       </c>
       <c r="K15">
-        <v>14.11733712131754</v>
+        <v>9.320617190376245</v>
       </c>
       <c r="N15">
-        <v>11.12329851942437</v>
+        <v>17.29881807911416</v>
       </c>
       <c r="O15">
-        <v>12.09982366056009</v>
+        <v>19.54551724156381</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.52692915639523</v>
+        <v>9.76525868245735</v>
       </c>
       <c r="C16">
-        <v>8.575356925199387</v>
+        <v>5.612496964700087</v>
       </c>
       <c r="D16">
-        <v>6.187287709179218</v>
+        <v>5.139083325963755</v>
       </c>
       <c r="F16">
-        <v>16.01734328769823</v>
+        <v>21.86055225645915</v>
       </c>
       <c r="G16">
-        <v>2.07124468250018</v>
+        <v>3.616848187826899</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.78081551744467</v>
+        <v>18.65529535277388</v>
       </c>
       <c r="K16">
-        <v>13.72178553268852</v>
+        <v>9.166303656820388</v>
       </c>
       <c r="N16">
-        <v>11.21452539728068</v>
+        <v>17.32756408075995</v>
       </c>
       <c r="O16">
-        <v>12.11599245424598</v>
+        <v>19.59073289433158</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.22059996505396</v>
+        <v>9.630723114713774</v>
       </c>
       <c r="C17">
-        <v>8.424227796180748</v>
+        <v>5.538213959874367</v>
       </c>
       <c r="D17">
-        <v>6.092719400753122</v>
+        <v>5.099607120507317</v>
       </c>
       <c r="F17">
-        <v>15.90419137965094</v>
+        <v>21.87319977686678</v>
       </c>
       <c r="G17">
-        <v>2.072785676645516</v>
+        <v>3.617391338470323</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.85515598671687</v>
+        <v>18.68986317170712</v>
       </c>
       <c r="K17">
-        <v>13.47346540457463</v>
+        <v>9.070503490352488</v>
       </c>
       <c r="N17">
-        <v>11.27129884270795</v>
+        <v>17.3456162624002</v>
       </c>
       <c r="O17">
-        <v>12.12990377097314</v>
+        <v>19.61958664762456</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.04163623696569</v>
+        <v>9.552530431793986</v>
       </c>
       <c r="C18">
-        <v>8.336088998802706</v>
+        <v>5.494947544750133</v>
       </c>
       <c r="D18">
-        <v>6.037621543499703</v>
+        <v>5.076693702460027</v>
       </c>
       <c r="F18">
-        <v>15.84063215664561</v>
+        <v>21.88106198626925</v>
       </c>
       <c r="G18">
-        <v>2.073678213463641</v>
+        <v>3.617708138131698</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.89890624271295</v>
+        <v>18.71008508844869</v>
       </c>
       <c r="K18">
-        <v>13.32856039778915</v>
+        <v>9.015003409073733</v>
       </c>
       <c r="N18">
-        <v>11.30424915200981</v>
+        <v>17.35615304032187</v>
       </c>
       <c r="O18">
-        <v>12.13932839198065</v>
+        <v>19.63659199102229</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98056565743013</v>
+        <v>9.525918570376353</v>
       </c>
       <c r="C19">
-        <v>8.306038689417797</v>
+        <v>5.480206144262803</v>
       </c>
       <c r="D19">
-        <v>6.018845940902317</v>
+        <v>5.068900355114899</v>
       </c>
       <c r="F19">
-        <v>15.81937337424156</v>
+        <v>21.88382487099116</v>
       </c>
       <c r="G19">
-        <v>2.073981487266661</v>
+        <v>3.617816156623991</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.91388644105081</v>
+        <v>18.71699018226488</v>
       </c>
       <c r="K19">
-        <v>13.27914154573204</v>
+        <v>8.996145411050566</v>
       </c>
       <c r="N19">
-        <v>11.31545622410328</v>
+        <v>17.35974702239819</v>
       </c>
       <c r="O19">
-        <v>12.14275968855111</v>
+        <v>19.64241998177606</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.25349590972064</v>
+        <v>9.645129145164933</v>
       </c>
       <c r="C20">
-        <v>8.440441405801115</v>
+        <v>5.546177657761868</v>
       </c>
       <c r="D20">
-        <v>6.102859431600914</v>
+        <v>5.103831031128458</v>
       </c>
       <c r="F20">
-        <v>15.91607893909699</v>
+        <v>21.8717925889384</v>
       </c>
       <c r="G20">
-        <v>2.072620996541263</v>
+        <v>3.617333064639625</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.84713892502593</v>
+        <v>18.68614824049677</v>
       </c>
       <c r="K20">
-        <v>13.50011463527138</v>
+        <v>9.080743233220598</v>
       </c>
       <c r="N20">
-        <v>11.26522457504252</v>
+        <v>17.34367868089953</v>
       </c>
       <c r="O20">
-        <v>12.12827460323682</v>
+        <v>19.61647273118694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13743904232622</v>
+        <v>10.03581282967843</v>
       </c>
       <c r="C21">
-        <v>8.877498190772002</v>
+        <v>5.761319654471214</v>
       </c>
       <c r="D21">
-        <v>6.376672654745056</v>
+        <v>5.21868078157361</v>
       </c>
       <c r="F21">
-        <v>16.25920018270675</v>
+        <v>21.83839139472966</v>
       </c>
       <c r="G21">
-        <v>2.068123098784449</v>
+        <v>3.61576236888343</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.63497068313273</v>
+        <v>18.58657861383034</v>
       </c>
       <c r="K21">
-        <v>14.21770861267045</v>
+        <v>9.360092966587349</v>
       </c>
       <c r="N21">
-        <v>11.09999687155527</v>
+        <v>17.29152529465084</v>
       </c>
       <c r="O21">
-        <v>12.09691938733991</v>
+        <v>19.53418868450731</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.69061422075084</v>
+        <v>10.28347555636428</v>
       </c>
       <c r="C22">
-        <v>9.15228105187505</v>
+        <v>5.896960879953669</v>
       </c>
       <c r="D22">
-        <v>6.549232856973545</v>
+        <v>5.291801642950249</v>
       </c>
       <c r="F22">
-        <v>16.49702366229391</v>
+        <v>21.82180622808452</v>
       </c>
       <c r="G22">
-        <v>2.065235932872128</v>
+        <v>3.614774746362281</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.50590774507652</v>
+        <v>18.52452587094715</v>
       </c>
       <c r="K22">
-        <v>14.66814889747869</v>
+        <v>9.538739794458786</v>
       </c>
       <c r="N22">
-        <v>10.99467850995479</v>
+        <v>17.25880329044099</v>
       </c>
       <c r="O22">
-        <v>12.09003603198093</v>
+        <v>19.48406746742148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.39761126232406</v>
+        <v>10.15201515720398</v>
       </c>
       <c r="C23">
-        <v>9.006619521304378</v>
+        <v>5.82502772035678</v>
       </c>
       <c r="D23">
-        <v>6.457724108192473</v>
+        <v>5.252957357036721</v>
       </c>
       <c r="F23">
-        <v>16.36885169032608</v>
+        <v>21.83017773675957</v>
       </c>
       <c r="G23">
-        <v>2.06677220242125</v>
+        <v>3.615298308113172</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.57387284997786</v>
+        <v>18.5573681233981</v>
       </c>
       <c r="K23">
-        <v>14.42943857239377</v>
+        <v>9.443768972980852</v>
       </c>
       <c r="N23">
-        <v>11.05064293759974</v>
+        <v>17.27614313691815</v>
       </c>
       <c r="O23">
-        <v>12.09241917031261</v>
+        <v>19.51048306967669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.23863253487</v>
+        <v>9.63861880993344</v>
       </c>
       <c r="C24">
-        <v>8.433115133871755</v>
+        <v>5.54257901287752</v>
       </c>
       <c r="D24">
-        <v>6.098277393785341</v>
+        <v>5.101922079204007</v>
       </c>
       <c r="F24">
-        <v>15.91069992249186</v>
+        <v>21.87242693789432</v>
       </c>
       <c r="G24">
-        <v>2.07269542783366</v>
+        <v>3.617359396109769</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.85076029804022</v>
+        <v>18.68782667559754</v>
       </c>
       <c r="K24">
-        <v>13.48807319066149</v>
+        <v>9.076115159596556</v>
       </c>
       <c r="N24">
-        <v>11.26796978466539</v>
+        <v>17.3445541682286</v>
       </c>
       <c r="O24">
-        <v>12.12900671611105</v>
+        <v>19.6178792342015</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.88248424191666</v>
+        <v>9.054172250007905</v>
       </c>
       <c r="C25">
-        <v>7.768196307815946</v>
+        <v>5.21735912696828</v>
       </c>
       <c r="D25">
-        <v>5.683724549889394</v>
+        <v>4.9311257905139</v>
       </c>
       <c r="F25">
-        <v>15.47462413461953</v>
+        <v>21.9404564785907</v>
       </c>
       <c r="G25">
-        <v>2.079322986271475</v>
+        <v>3.619750727441563</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.18698758785894</v>
+        <v>18.84152525357614</v>
       </c>
       <c r="K25">
-        <v>12.39331781141584</v>
+        <v>8.664583093538077</v>
       </c>
       <c r="N25">
-        <v>11.5136888579266</v>
+        <v>17.42422374510322</v>
       </c>
       <c r="O25">
-        <v>12.22234138994748</v>
+        <v>19.74937062418162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.600386905322791</v>
+        <v>12.7920864265707</v>
       </c>
       <c r="C2">
-        <v>4.961210941492835</v>
+        <v>7.239365987814991</v>
       </c>
       <c r="D2">
-        <v>4.799110630911748</v>
+        <v>5.356257385507168</v>
       </c>
       <c r="F2">
-        <v>22.00976878969509</v>
+        <v>15.20273531042475</v>
       </c>
       <c r="G2">
-        <v>3.621657502333183</v>
+        <v>2.08442248802365</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.96588030718569</v>
+        <v>11.46335869595693</v>
       </c>
       <c r="K2">
-        <v>8.350989176995258</v>
+        <v>11.51961310495796</v>
       </c>
       <c r="N2">
-        <v>17.48797667798502</v>
+        <v>11.70423998308443</v>
       </c>
       <c r="O2">
-        <v>19.85960241583157</v>
+        <v>12.3324248950061</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.280044250274301</v>
+        <v>11.99562309984244</v>
       </c>
       <c r="C3">
-        <v>4.77783824328683</v>
+        <v>6.857012022814422</v>
       </c>
       <c r="D3">
-        <v>4.706033055650416</v>
+        <v>5.121054805796033</v>
       </c>
       <c r="F3">
-        <v>22.06867399777129</v>
+        <v>15.04840897145425</v>
       </c>
       <c r="G3">
-        <v>3.623041583841587</v>
+        <v>2.088022361124058</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.05714943363522</v>
+        <v>11.66713728699291</v>
       </c>
       <c r="K3">
-        <v>8.133181791922043</v>
+        <v>10.88593234634702</v>
       </c>
       <c r="N3">
-        <v>17.53437867516515</v>
+        <v>11.83936477788546</v>
       </c>
       <c r="O3">
-        <v>19.94265453520549</v>
+        <v>12.43040044922248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.077764362241856</v>
+        <v>11.47824532272702</v>
       </c>
       <c r="C4">
-        <v>4.660681543077796</v>
+        <v>6.610693307831282</v>
       </c>
       <c r="D4">
-        <v>4.647210928850026</v>
+        <v>4.97035153278957</v>
       </c>
       <c r="F4">
-        <v>22.1107042421702</v>
+        <v>14.96805459720887</v>
       </c>
       <c r="G4">
-        <v>3.623936959204655</v>
+        <v>2.090305817111925</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.11664277164639</v>
+        <v>11.79995684105262</v>
       </c>
       <c r="K4">
-        <v>7.997333942715866</v>
+        <v>10.47668909421203</v>
       </c>
       <c r="N4">
-        <v>17.56445250984624</v>
+        <v>11.92528306499323</v>
       </c>
       <c r="O4">
-        <v>19.99775884847806</v>
+        <v>12.5013060036988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.994052325033453</v>
+        <v>11.26029462207508</v>
       </c>
       <c r="C5">
-        <v>4.61183598105169</v>
+        <v>6.507464269021812</v>
       </c>
       <c r="D5">
-        <v>4.622837466695643</v>
+        <v>4.907404655965188</v>
       </c>
       <c r="F5">
-        <v>22.12930233934987</v>
+        <v>14.93886554908148</v>
       </c>
       <c r="G5">
-        <v>3.624313317939431</v>
+        <v>2.091255028487283</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.14175583493242</v>
+        <v>11.85595956451323</v>
       </c>
       <c r="K5">
-        <v>7.94152298142639</v>
+        <v>10.30491891285329</v>
       </c>
       <c r="N5">
-        <v>17.57710673029645</v>
+        <v>11.96103743412247</v>
       </c>
       <c r="O5">
-        <v>20.02124665410441</v>
+        <v>12.53279080556984</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.980078490061329</v>
+        <v>11.22367492385623</v>
       </c>
       <c r="C6">
-        <v>4.603659991385159</v>
+        <v>6.490152684698406</v>
       </c>
       <c r="D6">
-        <v>4.618766462164822</v>
+        <v>4.89686124735293</v>
       </c>
       <c r="F6">
-        <v>22.13247923518634</v>
+        <v>14.93423134677615</v>
       </c>
       <c r="G6">
-        <v>3.624376506737701</v>
+        <v>2.091413781341486</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.14597834575961</v>
+        <v>11.8653705836563</v>
       </c>
       <c r="K6">
-        <v>7.932230732674742</v>
+        <v>10.27609698613745</v>
       </c>
       <c r="N6">
-        <v>17.57923207175832</v>
+        <v>11.96701923877625</v>
       </c>
       <c r="O6">
-        <v>20.02520910464161</v>
+        <v>12.5381720572269</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.076640407323001</v>
+        <v>11.47533474760555</v>
       </c>
       <c r="C7">
-        <v>4.660027198767722</v>
+        <v>6.609312594659175</v>
       </c>
       <c r="D7">
-        <v>4.646883827662274</v>
+        <v>4.9695087528011</v>
       </c>
       <c r="F7">
-        <v>22.11094911400781</v>
+        <v>14.96764664103666</v>
       </c>
       <c r="G7">
-        <v>3.623941988359157</v>
+        <v>2.090318542468101</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.11697793567485</v>
+        <v>11.80070458359872</v>
       </c>
       <c r="K7">
-        <v>7.996582977824502</v>
+        <v>10.4743926825258</v>
       </c>
       <c r="N7">
-        <v>17.56462155283401</v>
+        <v>11.92576225648394</v>
       </c>
       <c r="O7">
-        <v>19.99807143478623</v>
+        <v>12.50172027700085</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.491162910808328</v>
+        <v>12.52335362835605</v>
       </c>
       <c r="C8">
-        <v>4.898956679423945</v>
+        <v>7.109955812665769</v>
       </c>
       <c r="D8">
-        <v>4.767374752601675</v>
+        <v>5.276490539073079</v>
       </c>
       <c r="F8">
-        <v>22.02886050782544</v>
+        <v>15.14649865804464</v>
       </c>
       <c r="G8">
-        <v>3.622125301335724</v>
+        <v>2.085648731337636</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.99663342587872</v>
+        <v>11.53198692469901</v>
       </c>
       <c r="K8">
-        <v>8.276374118661009</v>
+        <v>11.30534056632525</v>
       </c>
       <c r="N8">
-        <v>17.50364809893972</v>
+        <v>11.75021830843018</v>
       </c>
       <c r="O8">
-        <v>19.88738508059517</v>
+        <v>12.36390730091546</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.254904047493685</v>
+        <v>14.35353851108331</v>
       </c>
       <c r="C9">
-        <v>5.329576413488509</v>
+        <v>7.99832400602426</v>
       </c>
       <c r="D9">
-        <v>4.989667805524442</v>
+        <v>5.826887017925855</v>
       </c>
       <c r="F9">
-        <v>21.91454767120162</v>
+        <v>15.61380290680902</v>
       </c>
       <c r="G9">
-        <v>3.618922614045816</v>
+        <v>2.07705730608273</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.78801553455289</v>
+        <v>11.0690373037461</v>
       </c>
       <c r="K9">
-        <v>8.805015808206395</v>
+        <v>12.77265306510926</v>
       </c>
       <c r="N9">
-        <v>17.39659837561458</v>
+        <v>11.4294178970289</v>
       </c>
       <c r="O9">
-        <v>19.70299076357522</v>
+        <v>12.1841471245041</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.780498552812082</v>
+        <v>15.56150838339146</v>
       </c>
       <c r="C10">
-        <v>5.620899339736531</v>
+        <v>8.592437153083688</v>
       </c>
       <c r="D10">
-        <v>5.143559366420645</v>
+        <v>6.197982679078183</v>
       </c>
       <c r="F10">
-        <v>21.85918876419506</v>
+        <v>16.03046119711932</v>
       </c>
       <c r="G10">
-        <v>3.616786805216931</v>
+        <v>2.07106967512615</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.65139691374564</v>
+        <v>10.77246960710241</v>
       </c>
       <c r="K10">
-        <v>9.177179797778351</v>
+        <v>13.74983879303809</v>
       </c>
       <c r="N10">
-        <v>17.32552500310853</v>
+        <v>11.20808732635374</v>
       </c>
       <c r="O10">
-        <v>19.58749599411856</v>
+        <v>12.11460110395464</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.01093767771096</v>
+        <v>16.0815930925205</v>
       </c>
       <c r="C11">
-        <v>5.747666028751659</v>
+        <v>8.849809842372963</v>
       </c>
       <c r="D11">
-        <v>5.211350394267756</v>
+        <v>6.359300882784629</v>
       </c>
       <c r="F11">
-        <v>21.8402502235664</v>
+        <v>16.23617504884828</v>
       </c>
       <c r="G11">
-        <v>3.615861876220393</v>
+        <v>2.068411454440984</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.59285445524312</v>
+        <v>10.64817196895267</v>
       </c>
       <c r="K11">
-        <v>9.342214582240878</v>
+        <v>14.17229026669919</v>
       </c>
       <c r="N11">
-        <v>17.2948252290883</v>
+        <v>11.11054851794718</v>
       </c>
       <c r="O11">
-        <v>19.53930763828057</v>
+        <v>12.09817263655718</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.09688809519779</v>
+        <v>16.27432691767668</v>
       </c>
       <c r="C12">
-        <v>5.794819181021203</v>
+        <v>8.94540839835461</v>
       </c>
       <c r="D12">
-        <v>5.236689488174846</v>
+        <v>6.419292836714215</v>
       </c>
       <c r="F12">
-        <v>21.83397828528125</v>
+        <v>16.31640387913433</v>
       </c>
       <c r="G12">
-        <v>3.615518304959241</v>
+        <v>2.067413879889202</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.57120412341249</v>
+        <v>10.60274009482189</v>
       </c>
       <c r="K12">
-        <v>9.404040266861244</v>
+        <v>14.32908100783857</v>
       </c>
       <c r="N12">
-        <v>17.28343382943363</v>
+        <v>11.07406980389838</v>
       </c>
       <c r="O12">
-        <v>19.52168689702416</v>
+        <v>12.09427538223937</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.07843645497301</v>
+        <v>16.23300515817361</v>
       </c>
       <c r="C13">
-        <v>5.784702065736352</v>
+        <v>8.924902479606285</v>
       </c>
       <c r="D13">
-        <v>5.23124722507843</v>
+        <v>6.406421474919806</v>
       </c>
       <c r="F13">
-        <v>21.83528902394927</v>
+        <v>16.29902159310329</v>
       </c>
       <c r="G13">
-        <v>3.615592002598266</v>
+        <v>2.067628330046668</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.57584385398412</v>
+        <v>10.61244996833137</v>
       </c>
       <c r="K13">
-        <v>9.390755612774891</v>
+        <v>14.29545491209067</v>
       </c>
       <c r="N13">
-        <v>17.28587677801265</v>
+        <v>11.08190572874394</v>
       </c>
       <c r="O13">
-        <v>19.52545392267875</v>
+        <v>12.095009183326</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.01803551491646</v>
+        <v>16.09753368376581</v>
       </c>
       <c r="C14">
-        <v>5.751562513639487</v>
+        <v>8.857712161297158</v>
       </c>
       <c r="D14">
-        <v>5.213441781746237</v>
+        <v>6.364258506557786</v>
       </c>
       <c r="F14">
-        <v>21.83971618848064</v>
+        <v>16.24272884637073</v>
       </c>
       <c r="G14">
-        <v>3.615833476717414</v>
+        <v>2.068329204622085</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.59106287988583</v>
+        <v>10.64440077801814</v>
       </c>
       <c r="K14">
-        <v>9.34731473839577</v>
+        <v>14.18525333813578</v>
       </c>
       <c r="N14">
-        <v>17.29388336738341</v>
+        <v>11.10753819938324</v>
       </c>
       <c r="O14">
-        <v>19.53784539181168</v>
+        <v>12.09780464650313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.980865511250117</v>
+        <v>16.01400577401198</v>
       </c>
       <c r="C15">
-        <v>5.731152184066099</v>
+        <v>8.816313369764055</v>
       </c>
       <c r="D15">
-        <v>5.202491829918789</v>
+        <v>6.338289305206282</v>
       </c>
       <c r="F15">
-        <v>21.8425451616195</v>
+        <v>16.20855124061276</v>
       </c>
       <c r="G15">
-        <v>3.615982255524737</v>
+        <v>2.068759675220562</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.600452484416</v>
+        <v>10.6641882387316</v>
       </c>
       <c r="K15">
-        <v>9.320617190376245</v>
+        <v>14.11733712131754</v>
       </c>
       <c r="N15">
-        <v>17.29881807911416</v>
+        <v>11.12329851942437</v>
       </c>
       <c r="O15">
-        <v>19.54551724156381</v>
+        <v>12.09982366056009</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.76525868245735</v>
+        <v>15.52692915639519</v>
       </c>
       <c r="C16">
-        <v>5.612496964700087</v>
+        <v>8.575356925199506</v>
       </c>
       <c r="D16">
-        <v>5.139083325963755</v>
+        <v>6.187287709179289</v>
       </c>
       <c r="F16">
-        <v>21.86055225645915</v>
+        <v>16.0173432876982</v>
       </c>
       <c r="G16">
-        <v>3.616848187826899</v>
+        <v>2.07124468250018</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.65529535277388</v>
+        <v>10.78081551744474</v>
       </c>
       <c r="K16">
-        <v>9.166303656820388</v>
+        <v>13.72178553268854</v>
       </c>
       <c r="N16">
-        <v>17.32756408075995</v>
+        <v>11.21452539728068</v>
       </c>
       <c r="O16">
-        <v>19.59073289433158</v>
+        <v>12.11599245424599</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.630723114713774</v>
+        <v>15.22059996505394</v>
       </c>
       <c r="C17">
-        <v>5.538213959874367</v>
+        <v>8.424227796180828</v>
       </c>
       <c r="D17">
-        <v>5.099607120507317</v>
+        <v>6.092719400753169</v>
       </c>
       <c r="F17">
-        <v>21.87319977686678</v>
+        <v>15.90419137965092</v>
       </c>
       <c r="G17">
-        <v>3.617391338470323</v>
+        <v>2.072785676645514</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.68986317170712</v>
+        <v>10.85515598671687</v>
       </c>
       <c r="K17">
-        <v>9.070503490352488</v>
+        <v>13.47346540457463</v>
       </c>
       <c r="N17">
-        <v>17.3456162624002</v>
+        <v>11.27129884270792</v>
       </c>
       <c r="O17">
-        <v>19.61958664762456</v>
+        <v>12.1299037709731</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.552530431793986</v>
+        <v>15.0416362369657</v>
       </c>
       <c r="C18">
-        <v>5.494947544750133</v>
+        <v>8.336088998802881</v>
       </c>
       <c r="D18">
-        <v>5.076693702460027</v>
+        <v>6.037621543499551</v>
       </c>
       <c r="F18">
-        <v>21.88106198626925</v>
+        <v>15.84063215664545</v>
       </c>
       <c r="G18">
-        <v>3.617708138131698</v>
+        <v>2.073678213463773</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.71008508844869</v>
+        <v>10.89890624271281</v>
       </c>
       <c r="K18">
-        <v>9.015003409073733</v>
+        <v>13.32856039778924</v>
       </c>
       <c r="N18">
-        <v>17.35615304032187</v>
+        <v>11.30424915200968</v>
       </c>
       <c r="O18">
-        <v>19.63659199102229</v>
+        <v>12.1393283919804</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.525918570376353</v>
+        <v>14.98056565743017</v>
       </c>
       <c r="C19">
-        <v>5.480206144262803</v>
+        <v>8.306038689417836</v>
       </c>
       <c r="D19">
-        <v>5.068900355114899</v>
+        <v>6.018845940902304</v>
       </c>
       <c r="F19">
-        <v>21.88382487099116</v>
+        <v>15.81937337424152</v>
       </c>
       <c r="G19">
-        <v>3.617816156623991</v>
+        <v>2.07398148726693</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.71699018226488</v>
+        <v>10.91388644105083</v>
       </c>
       <c r="K19">
-        <v>8.996145411050566</v>
+        <v>13.27914154573207</v>
       </c>
       <c r="N19">
-        <v>17.35974702239819</v>
+        <v>11.31545622410324</v>
       </c>
       <c r="O19">
-        <v>19.64241998177606</v>
+        <v>12.14275968855107</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.645129145164933</v>
+        <v>15.25349590972062</v>
       </c>
       <c r="C20">
-        <v>5.546177657761868</v>
+        <v>8.440441405801346</v>
       </c>
       <c r="D20">
-        <v>5.103831031128458</v>
+        <v>6.102859431600669</v>
       </c>
       <c r="F20">
-        <v>21.8717925889384</v>
+        <v>15.91607893909701</v>
       </c>
       <c r="G20">
-        <v>3.617333064639625</v>
+        <v>2.072620996541396</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.68614824049677</v>
+        <v>10.84713892502592</v>
       </c>
       <c r="K20">
-        <v>9.080743233220598</v>
+        <v>13.50011463527144</v>
       </c>
       <c r="N20">
-        <v>17.34367868089953</v>
+        <v>11.26522457504248</v>
       </c>
       <c r="O20">
-        <v>19.61647273118694</v>
+        <v>12.12827460323672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.03581282967843</v>
+        <v>16.13743904232627</v>
       </c>
       <c r="C21">
-        <v>5.761319654471214</v>
+        <v>8.877498190771936</v>
       </c>
       <c r="D21">
-        <v>5.21868078157361</v>
+        <v>6.37667265474516</v>
       </c>
       <c r="F21">
-        <v>21.83839139472966</v>
+        <v>16.25920018270662</v>
       </c>
       <c r="G21">
-        <v>3.61576236888343</v>
+        <v>2.068123098784449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.58657861383034</v>
+        <v>10.63497068313261</v>
       </c>
       <c r="K21">
-        <v>9.360092966587349</v>
+        <v>14.21770861267045</v>
       </c>
       <c r="N21">
-        <v>17.29152529465084</v>
+        <v>11.09999687155521</v>
       </c>
       <c r="O21">
-        <v>19.53418868450731</v>
+        <v>12.09691938733982</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.28347555636428</v>
+        <v>16.69061422075087</v>
       </c>
       <c r="C22">
-        <v>5.896960879953669</v>
+        <v>9.15228105187505</v>
       </c>
       <c r="D22">
-        <v>5.291801642950249</v>
+        <v>6.549232856973595</v>
       </c>
       <c r="F22">
-        <v>21.82180622808452</v>
+        <v>16.49702366229387</v>
       </c>
       <c r="G22">
-        <v>3.614774746362281</v>
+        <v>2.065235932871994</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.52452587094715</v>
+        <v>10.50590774507648</v>
       </c>
       <c r="K22">
-        <v>9.538739794458786</v>
+        <v>14.66814889747872</v>
       </c>
       <c r="N22">
-        <v>17.25880329044099</v>
+        <v>10.99467850995475</v>
       </c>
       <c r="O22">
-        <v>19.48406746742148</v>
+        <v>12.09003603198087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.15201515720398</v>
+        <v>16.39761126232398</v>
       </c>
       <c r="C23">
-        <v>5.82502772035678</v>
+        <v>9.006619521304458</v>
       </c>
       <c r="D23">
-        <v>5.252957357036721</v>
+        <v>6.457724108192453</v>
       </c>
       <c r="F23">
-        <v>21.83017773675957</v>
+        <v>16.36885169032617</v>
       </c>
       <c r="G23">
-        <v>3.615298308113172</v>
+        <v>2.066772202421382</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.5573681233981</v>
+        <v>10.57387284997803</v>
       </c>
       <c r="K23">
-        <v>9.443768972980852</v>
+        <v>14.42943857239376</v>
       </c>
       <c r="N23">
-        <v>17.27614313691815</v>
+        <v>11.05064293759987</v>
       </c>
       <c r="O23">
-        <v>19.51048306967669</v>
+        <v>12.09241917031273</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.63861880993344</v>
+        <v>15.23863253487001</v>
       </c>
       <c r="C24">
-        <v>5.54257901287752</v>
+        <v>8.433115133871807</v>
       </c>
       <c r="D24">
-        <v>5.101922079204007</v>
+        <v>6.098277393785414</v>
       </c>
       <c r="F24">
-        <v>21.87242693789432</v>
+        <v>15.91069992249177</v>
       </c>
       <c r="G24">
-        <v>3.617359396109769</v>
+        <v>2.072695427833393</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.68782667559754</v>
+        <v>10.85076029804018</v>
       </c>
       <c r="K24">
-        <v>9.076115159596556</v>
+        <v>13.48807319066153</v>
       </c>
       <c r="N24">
-        <v>17.3445541682286</v>
+        <v>11.26796978466535</v>
       </c>
       <c r="O24">
-        <v>19.6178792342015</v>
+        <v>12.12900671611101</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.054172250007905</v>
+        <v>13.88248424191663</v>
       </c>
       <c r="C25">
-        <v>5.21735912696828</v>
+        <v>7.76819630781616</v>
       </c>
       <c r="D25">
-        <v>4.9311257905139</v>
+        <v>5.683724549889284</v>
       </c>
       <c r="F25">
-        <v>21.9404564785907</v>
+        <v>15.47462413461953</v>
       </c>
       <c r="G25">
-        <v>3.619750727441563</v>
+        <v>2.07932298627161</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.84152525357614</v>
+        <v>11.18698758785895</v>
       </c>
       <c r="K25">
-        <v>8.664583093538077</v>
+        <v>12.39331781141587</v>
       </c>
       <c r="N25">
-        <v>17.42422374510322</v>
+        <v>11.51368885792659</v>
       </c>
       <c r="O25">
-        <v>19.74937062418162</v>
+        <v>12.22234138994743</v>
       </c>
     </row>
   </sheetData>
